--- a/transactions.xlsx
+++ b/transactions.xlsx
@@ -1,33 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frank Zhi\PycharmProjects\Crypto_Trading\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31B3BB4-57FD-412B-9684-EBEA2316A35F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="16095" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="6">
   <si>
     <t>time</t>
   </si>
@@ -41,16 +28,16 @@
     <t>side</t>
   </si>
   <si>
-    <t>buy</t>
+    <t>sell</t>
   </si>
   <si>
-    <t>sell</t>
+    <t>buy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
@@ -122,9 +109,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -172,7 +156,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -205,26 +189,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -257,23 +224,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -449,19 +399,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,357 +423,650 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>43363.114357314807</v>
+        <v>43363.565331226862</v>
       </c>
       <c r="C2">
-        <v>209.25</v>
+        <v>211.13</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>2.93770379</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>43363.114498379633</v>
+        <v>43363.565332002312</v>
       </c>
       <c r="C3">
-        <v>209.25</v>
+        <v>211.13</v>
       </c>
       <c r="D3">
-        <v>1.18879913</v>
+        <v>1.744</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="F3">
-        <f>D3-1</f>
-        <v>0.18879913000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>43363.11454829861</v>
+        <v>43363.56538576389</v>
       </c>
       <c r="C4">
-        <v>209.25</v>
+        <v>211.14</v>
       </c>
       <c r="D4">
-        <v>0.16823885</v>
+        <v>0.10482869</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4">
-        <f>D4</f>
-        <v>0.16823885</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>43363.114549814818</v>
+        <v>43363.565391898148</v>
       </c>
       <c r="C5">
-        <v>209.24</v>
+        <v>211.14</v>
       </c>
       <c r="D5">
-        <v>0.01</v>
+        <v>6.8096260000000006E-2</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
       </c>
-      <c r="F5">
-        <f t="shared" ref="F5:F18" si="0">D5</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>43363.114549814818</v>
+        <v>43363.565459548612</v>
       </c>
       <c r="C6">
-        <v>209.24</v>
+        <v>211.14</v>
       </c>
       <c r="D6">
-        <v>1.0050281999999999</v>
+        <v>0.22625340999999999</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>1.0050281999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>43363.114549814818</v>
+        <v>43363.56548690972</v>
       </c>
       <c r="C7">
-        <v>209.24</v>
+        <v>211.14</v>
       </c>
       <c r="D7">
-        <v>0.7849718</v>
+        <v>0.33464391999999998</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>0.7849718</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>43363.114555312502</v>
+        <v>43363.565610983787</v>
       </c>
       <c r="C8">
-        <v>209.24</v>
+        <v>211.14</v>
       </c>
       <c r="D8">
-        <v>0.16789999999999999</v>
+        <v>1.35954687</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
       </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>0.16789999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>43363.114566655087</v>
+        <v>43363.565625902767</v>
       </c>
       <c r="C9">
-        <v>209.24</v>
+        <v>211.14</v>
       </c>
       <c r="D9">
-        <v>0.30895</v>
+        <v>4.1791138999999999</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>0.30895</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>43363.114608159733</v>
+        <v>43363.565737916673</v>
       </c>
       <c r="C10">
-        <v>209.24</v>
+        <v>211.13</v>
       </c>
       <c r="D10">
-        <v>5.650782E-2</v>
+        <v>6.4849999999999999E-4</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>5.650782E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>43363.114655532409</v>
+        <v>43363.565737916673</v>
       </c>
       <c r="C11">
-        <v>209.25</v>
+        <v>211.13</v>
       </c>
       <c r="D11">
-        <v>2.3823529999999999E-2</v>
+        <v>0.19204093</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>2.3823529999999999E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>43363.114691944444</v>
+        <v>43363.565826585647</v>
       </c>
       <c r="C12">
-        <v>209.25</v>
+        <v>211.14</v>
       </c>
       <c r="D12">
-        <v>0.18074502000000001</v>
+        <v>0.95166866999999999</v>
       </c>
       <c r="E12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>0.18074502000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>43363.114692013893</v>
+        <v>43363.565842245371</v>
       </c>
       <c r="C13">
-        <v>209.25</v>
+        <v>211.14</v>
       </c>
       <c r="D13">
-        <v>0.16830000000000001</v>
+        <v>1.402704</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>0.16830000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>43363.114732662027</v>
+        <v>43363.565874236112</v>
       </c>
       <c r="C14">
-        <v>209.25</v>
+        <v>211.14</v>
       </c>
       <c r="D14">
-        <v>0.46130162000000002</v>
+        <v>9.3543726700000001</v>
       </c>
       <c r="E14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>0.46130162000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>43363.114761296303</v>
+        <v>43363.565889456018</v>
       </c>
       <c r="C15">
-        <v>209.25</v>
+        <v>211.2</v>
       </c>
       <c r="D15">
-        <v>4.2844319999999998E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>4.2844319999999998E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>43363.114792615743</v>
+        <v>43363.565908518518</v>
       </c>
       <c r="C16">
-        <v>209.24</v>
+        <v>211.2</v>
       </c>
       <c r="D16">
-        <v>1.9423869999999999E-2</v>
+        <v>14.96</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>1.9423869999999999E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>43363.114960752318</v>
+        <v>43363.565957800929</v>
       </c>
       <c r="C17">
-        <v>209.24</v>
+        <v>211.51</v>
       </c>
       <c r="D17">
-        <v>3.2508300000000001E-3</v>
+        <v>4.24608E-2</v>
       </c>
       <c r="E17" t="s">
         <v>5</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>3.2508300000000001E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>43363.114960752318</v>
+        <v>43363.56605346065</v>
       </c>
       <c r="C18">
-        <v>208.96</v>
+        <v>211.5</v>
       </c>
       <c r="D18">
-        <v>1.25436668</v>
+        <v>0.24700333999999999</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>1.25436668</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>43363.566079710647</v>
+      </c>
+      <c r="C19">
+        <v>211.68</v>
+      </c>
+      <c r="D19">
+        <v>10.113164360000001</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
+        <v>43363.566108263891</v>
+      </c>
+      <c r="C20">
+        <v>211.62</v>
+      </c>
+      <c r="D20">
+        <v>1.35716858</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <v>43363.566272905089</v>
+      </c>
+      <c r="C21">
+        <v>211.61</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
+        <v>43363.566272905089</v>
+      </c>
+      <c r="C22">
+        <v>211.61</v>
+      </c>
+      <c r="D22">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <v>43363.566308634261</v>
+      </c>
+      <c r="C23">
+        <v>211.62</v>
+      </c>
+      <c r="D23">
+        <v>0.99795049000000002</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2">
+        <v>43363.566356516203</v>
+      </c>
+      <c r="C24">
+        <v>211.63</v>
+      </c>
+      <c r="D24">
+        <v>0.1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2">
+        <v>43363.566356516203</v>
+      </c>
+      <c r="C25">
+        <v>211.63</v>
+      </c>
+      <c r="D25">
+        <v>1.75317623</v>
+      </c>
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2">
+        <v>43363.566399050927</v>
+      </c>
+      <c r="C26">
+        <v>211.63</v>
+      </c>
+      <c r="D26">
+        <v>4.1660304500000001</v>
+      </c>
+      <c r="E26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2">
+        <v>43363.566403715267</v>
+      </c>
+      <c r="C27">
+        <v>211.62</v>
+      </c>
+      <c r="D27">
+        <v>4.1627000000000001</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2">
+        <v>43363.566407222221</v>
+      </c>
+      <c r="C28">
+        <v>211.63</v>
+      </c>
+      <c r="D28">
+        <v>0.95858483000000005</v>
+      </c>
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2">
+        <v>43363.566461388888</v>
+      </c>
+      <c r="C29">
+        <v>211.74</v>
+      </c>
+      <c r="D29">
+        <v>0.22574021</v>
+      </c>
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2">
+        <v>43363.56652685185</v>
+      </c>
+      <c r="C30">
+        <v>211.83</v>
+      </c>
+      <c r="D30">
+        <v>0.81</v>
+      </c>
+      <c r="E30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2">
+        <v>43363.56652685185</v>
+      </c>
+      <c r="C31">
+        <v>211.85</v>
+      </c>
+      <c r="D31">
+        <v>2.0371000000000001</v>
+      </c>
+      <c r="E31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2">
+        <v>43363.566533726851</v>
+      </c>
+      <c r="C32">
+        <v>211.84</v>
+      </c>
+      <c r="D32">
+        <v>1.13128242</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2">
+        <v>43363.566564699067</v>
+      </c>
+      <c r="C33">
+        <v>211.83</v>
+      </c>
+      <c r="D33">
+        <v>0.02</v>
+      </c>
+      <c r="E33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2">
+        <v>43363.566564699067</v>
+      </c>
+      <c r="C34">
+        <v>211.83</v>
+      </c>
+      <c r="D34">
+        <v>2.7330399999999999E-3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2">
+        <v>43363.566613900461</v>
+      </c>
+      <c r="C35">
+        <v>211.82</v>
+      </c>
+      <c r="D35">
+        <v>1.00000752</v>
+      </c>
+      <c r="E35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2">
+        <v>43363.566701331023</v>
+      </c>
+      <c r="C36">
+        <v>211.85</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2">
+        <v>43363.566845324072</v>
+      </c>
+      <c r="C37">
+        <v>211.85</v>
+      </c>
+      <c r="D37">
+        <v>0.16438928999999999</v>
+      </c>
+      <c r="E37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2">
+        <v>43363.566907372682</v>
+      </c>
+      <c r="C38">
+        <v>211.85</v>
+      </c>
+      <c r="D38">
+        <v>4.6279010700000001</v>
+      </c>
+      <c r="E38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2">
+        <v>43363.566967638893</v>
+      </c>
+      <c r="C39">
+        <v>211.85</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/transactions.xlsx
+++ b/transactions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="16095" windowHeight="9600"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="16095" windowHeight="9540"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -400,16 +400,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,7 +425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -439,8 +441,12 @@
       <c r="E2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f>D2</f>
+        <v>2.93770379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -456,8 +462,12 @@
       <c r="E3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f t="shared" ref="F3:F5" si="0">D3</f>
+        <v>1.744</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -473,8 +483,12 @@
       <c r="E4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0.10482869</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -490,8 +504,12 @@
       <c r="E5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>6.8096260000000006E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -507,8 +525,16 @@
       <c r="E6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f>5-SUM(F2:F5)</f>
+        <v>0.14537126000000011</v>
+      </c>
+      <c r="G6">
+        <f>D6-F6</f>
+        <v>8.0882149999999875E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -524,8 +550,12 @@
       <c r="E7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f>D7</f>
+        <v>0.33464391999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -541,8 +571,12 @@
       <c r="E8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <f t="shared" ref="G8" si="1">D8</f>
+        <v>1.35954687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -558,8 +592,16 @@
       <c r="E9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <f>5-SUM(G6:G8)</f>
+        <v>3.2249270600000002</v>
+      </c>
+      <c r="H9">
+        <f>D9-G9</f>
+        <v>0.95418683999999976</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -575,8 +617,12 @@
       <c r="E10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <f>D10</f>
+        <v>6.4849999999999999E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -592,8 +638,12 @@
       <c r="E11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <f t="shared" ref="H11:H13" si="2">D11</f>
+        <v>0.19204093</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -609,8 +659,12 @@
       <c r="E12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>0.95166866999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -626,8 +680,12 @@
       <c r="E13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>1.402704</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -643,8 +701,16 @@
       <c r="E14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <f>5-SUM(H9:H13)</f>
+        <v>1.49875106</v>
+      </c>
+      <c r="I14">
+        <f>D14-H14-5</f>
+        <v>2.85562161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -660,8 +726,12 @@
       <c r="E15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <f>D15</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -677,8 +747,16 @@
       <c r="E16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <f>5-SUM(I14:I15)</f>
+        <v>2.1293783899999998</v>
+      </c>
+      <c r="J16">
+        <f>D16-10-I16</f>
+        <v>2.830621610000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -694,8 +772,12 @@
       <c r="E17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <f>D17</f>
+        <v>4.24608E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -711,8 +793,12 @@
       <c r="E18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <f t="shared" ref="J18" si="3">D18</f>
+        <v>0.24700333999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -728,8 +814,12 @@
       <c r="E19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <f>5-SUM(J16:J18)</f>
+        <v>1.8799142499999988</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -746,7 +836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -762,8 +852,12 @@
       <c r="E21" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <f>SUMPRODUCT(J16:J19,C16:C19)/5</f>
+        <v>211.39792453800001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -780,7 +874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -797,7 +891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -814,7 +908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -831,7 +925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -848,7 +942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -865,7 +959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -882,7 +976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -899,7 +993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -916,7 +1010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -933,7 +1027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
